--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>6.038299999999996</v>
+        <v>5.790099999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.82020000000001</v>
+        <v>13.7638</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.6778</v>
+        <v>13.233</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.242400000000005</v>
+        <v>9.277300000000006</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.607699999999997</v>
+        <v>6.638799999999995</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8418</v>
+        <v>14.09509999999999</v>
       </c>
     </row>
     <row r="9">
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.625800000000005</v>
+        <v>8.935600000000004</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.1302</v>
+        <v>12.69170000000001</v>
       </c>
     </row>
     <row r="17">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.716899999999998</v>
+        <v>5.803199999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>11.72829999999999</v>
+        <v>12.3654</v>
       </c>
     </row>
     <row r="23">
